--- a/CDSIWAR_INTERN.xlsx
+++ b/CDSIWAR_INTERN.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIG\School Assignments\Creative Dynamix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cueva Family\Desktop\X++ Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="7035" tabRatio="410" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="7035" tabRatio="410"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>Week</t>
   </si>
@@ -335,22 +335,26 @@
     <t>Vallacar</t>
   </si>
   <si>
-    <t>DFB</t>
+    <t>Mon</t>
   </si>
   <si>
-    <t>HFI</t>
+    <t>Tue</t>
   </si>
   <si>
-    <t>ESY</t>
+    <t>Wed</t>
   </si>
   <si>
-    <t>JJY</t>
+    <t>LMC</t>
   </si>
   <si>
-    <t>MRL</t>
+    <t>*Internship Onboarding
+*D365 Development Training - Labels and Resources, Base Enumerations, Extended Data Types, Tables (Fields)</t>
   </si>
   <si>
-    <t>MRC</t>
+    <t>D365 Development Training - Resources, Base Enums, EDTs, Tables (Continuation)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Forms, Forms Creation, Menus</t>
   </si>
 </sst>
 </file>
@@ -2075,6 +2079,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2110,6 +2131,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2288,11 +2326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T391"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,14 +2387,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <f>WEEKNUM(D4,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="str">
-        <f>TEXT(D4,"ddd")</f>
-        <v>Sat</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="12"/>
       <c r="D4" s="28"/>
       <c r="E4" s="23"/>
@@ -2366,68 +2398,98 @@
       <c r="I4" s="12"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
-        <f>WEEKNUM(D5,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="36" t="str">
-        <f>TEXT(D5,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="28">
+        <v>44690</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="G5" s="38" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
+        <v>9:05</v>
       </c>
       <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <f>WEEKNUM(D6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="str">
-        <f>TEXT(D6,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="28">
+        <v>44721</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.75277777777777777</v>
+      </c>
       <c r="G6" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
+        <v>9:02</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <f>WEEKNUM(D7,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="str">
-        <f>TEXT(D7,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="29">
+        <v>44751</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.7680555555555556</v>
+      </c>
       <c r="G7" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
+        <v>9:21</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -10540,7 +10602,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14532,8 +14594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14567,7 +14629,7 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -14586,9 +14648,6 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
@@ -14606,9 +14665,6 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
@@ -14626,9 +14682,6 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
@@ -14637,9 +14690,6 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
       <c r="E7" t="s">
         <v>48</v>
       </c>
@@ -14648,9 +14698,6 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
@@ -14912,21 +14959,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F617D5D6C2326244B945A153B2699D83" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729ff3d1dfa1b0e3159d7adc89176057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfde720a-0586-4dda-8f1e-44106db839b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75fdde4a3c23aebaadb6d43fc9a28e41" ns2:_="">
     <xsd:import namespace="cfde720a-0586-4dda-8f1e-44106db839b2"/>
@@ -15070,23 +15102,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15102,4 +15133,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>